--- a/data/trans_camb/P16A07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Estudios-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.441661343904929</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.359416945943789</v>
+        <v>3.359416945943785</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>3.156786556769439</v>
@@ -664,7 +664,7 @@
         <v>0.9725038509564549</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.064811849358425</v>
+        <v>3.064811849358423</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8313158040870741</v>
+        <v>-0.5884873068627876</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.621534782861327</v>
+        <v>-1.71674909717626</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1501843877906985</v>
+        <v>0.1003946383583171</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.86188377216745</v>
+        <v>1.940842222680714</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.010360951199203</v>
+        <v>-1.175251599378229</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.025300961636689</v>
+        <v>0.7690577239258336</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.683419530550972</v>
+        <v>1.448178859011213</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.8062657254134378</v>
+        <v>-0.7104699518234966</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.31397744607332</v>
+        <v>1.501348240374218</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.012947695463857</v>
+        <v>3.030448310155637</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.247013968871321</v>
+        <v>2.109074672319349</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.676682104849673</v>
+        <v>4.646002603154</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.900518656296552</v>
+        <v>7.171692638070438</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.395533954380489</v>
+        <v>4.201660970186055</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.681600554400821</v>
+        <v>5.673093110139479</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.951138124899385</v>
+        <v>4.890652858837967</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.730869905536408</v>
+        <v>2.582243285618206</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.061962677564697</v>
+        <v>4.919103523507224</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.146295315098226</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.340903196670283</v>
+        <v>0.3409031966702827</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4340892120822119</v>
@@ -769,7 +769,7 @@
         <v>0.1337288482502356</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4214417848477277</v>
+        <v>0.4214417848477275</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1825106931967602</v>
+        <v>-0.1392583640897343</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3322320199233827</v>
+        <v>-0.3631116636041833</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.006731006660541969</v>
+        <v>-0.01265449935074483</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1663684034739245</v>
+        <v>0.1722026819575253</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.09361066077958406</v>
+        <v>-0.1067774119639704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08489437833732658</v>
+        <v>0.06426602420143882</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2066816784942412</v>
+        <v>0.176352764904643</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1094491233452999</v>
+        <v>-0.08698776633583559</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1546741639695743</v>
+        <v>0.1891038234463603</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.985453132665942</v>
+        <v>0.9774986194213463</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7034854075740973</v>
+        <v>0.6630578088081482</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.424038439742906</v>
+        <v>1.496672784531699</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7763637313743769</v>
+        <v>0.8317228121217579</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5089811074173152</v>
+        <v>0.4775144536340877</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6290237484152196</v>
+        <v>0.6419049112886287</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7530432053033883</v>
+        <v>0.7427684478492357</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4067067666607703</v>
+        <v>0.4007107544471969</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7732545442723041</v>
+        <v>0.7581887146862379</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>1.651701719753486</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.375623039807299</v>
+        <v>2.375623039807298</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.169279947712839</v>
@@ -878,7 +878,7 @@
         <v>1.259871784201641</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.287982549697273</v>
+        <v>2.287982549697272</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5669555629218327</v>
+        <v>0.5317292022050252</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09049110199782483</v>
+        <v>0.09872853937609526</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.289525832396712</v>
+        <v>1.298439971622364</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.522095955785975</v>
+        <v>-0.4463345124418814</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04377743199811804</v>
+        <v>0.1322128834810886</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.024280845858353</v>
+        <v>0.8835838046744797</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2804074429260852</v>
+        <v>0.3062887102746644</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4735362161986885</v>
+        <v>0.3545699050058231</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.391145468923297</v>
+        <v>1.427262437831784</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.379756226210448</v>
+        <v>2.234717624088182</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.754122412790324</v>
+        <v>1.563467590256964</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.163065727616567</v>
+        <v>3.158803611381591</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.568462309747495</v>
+        <v>2.592411831914162</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.170825291471755</v>
+        <v>3.249201364003413</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.769073525378442</v>
+        <v>3.801438785713446</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.032640859959508</v>
+        <v>2.028886078200442</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.146120209309587</v>
+        <v>2.082673134877129</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.062677989680255</v>
+        <v>3.067999589731781</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.3667447803926966</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5274846781415173</v>
+        <v>0.527484678141517</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.4298836340634742</v>
@@ -983,7 +983,7 @@
         <v>0.4631895570483558</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.8411725994801965</v>
+        <v>0.8411725994801963</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3774944656913797</v>
+        <v>0.3218784153754901</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01527676758660232</v>
+        <v>0.06245434154692042</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8245349632993291</v>
+        <v>0.8105342330793284</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.09351104848736096</v>
+        <v>-0.092522024072711</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.007940897594466607</v>
+        <v>0.008166491429434859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1826578934781499</v>
+        <v>0.1624209705300507</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08239193532342758</v>
+        <v>0.09439225812751012</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1405396933407015</v>
+        <v>0.09676057482725937</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4131087731224317</v>
+        <v>0.4262544740454595</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.31855013284233</v>
+        <v>3.008319205006904</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.266879817681304</v>
+        <v>2.268299937659924</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.46659366961817</v>
+        <v>4.299757202024992</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6799598487196648</v>
+        <v>0.6898247445233072</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8389534278676307</v>
+        <v>0.8545660198640583</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.039111921109671</v>
+        <v>1.004570124698461</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.864752765079545</v>
+        <v>0.8742264272680643</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9400591273492311</v>
+        <v>0.8903712347070061</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.315688832941713</v>
+        <v>1.333388356211955</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.506862484250368</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.561277187632105e-05</v>
+        <v>-2.561277187666799e-05</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.468084875233914</v>
@@ -1083,7 +1083,7 @@
         <v>-0.9371463791738865</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.2160087443503329</v>
+        <v>0.2160087443503336</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.7650167928265432</v>
@@ -1092,7 +1092,7 @@
         <v>-1.163921098045733</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1779922250703784</v>
+        <v>0.1779922250703777</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.877435372251794</v>
+        <v>-1.778341982511207</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.990545769955505</v>
+        <v>-2.851812485064339</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.562730793915159</v>
+        <v>-1.597001259310954</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.620916456823176</v>
+        <v>-3.77343459465638</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.315552654796909</v>
+        <v>-3.249710611605404</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.019050023117765</v>
+        <v>-2.069505410503092</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.214749711730303</v>
+        <v>-2.111460839613819</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.516947895619325</v>
+        <v>-2.396875588569878</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.265178065177322</v>
+        <v>-1.145600939117382</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.19838085584887</v>
+        <v>2.192133815669142</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.2737016538042299</v>
+        <v>-0.3023004014203861</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.688996925074779</v>
+        <v>1.53455909552986</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7284209118919921</v>
+        <v>0.808271185521734</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.37305016312628</v>
+        <v>1.44252315145437</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.153347621457701</v>
+        <v>2.224848150123554</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6480559523518634</v>
+        <v>0.9474849214045246</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08436191146231255</v>
+        <v>0.06609055378305786</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.412495847651287</v>
+        <v>1.380861942065007</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.7342320786955362</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-1.248004972747146e-05</v>
+        <v>-1.248004972764052e-05</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.4094971019522509</v>
@@ -1188,7 +1188,7 @@
         <v>-0.2614009127473686</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06025193522527928</v>
+        <v>0.06025193522527948</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.2769017439615702</v>
@@ -1197,7 +1197,7 @@
         <v>-0.4212871990583929</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.06442519693128237</v>
+        <v>0.06442519693128212</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7366073020215965</v>
+        <v>-0.7044936081653312</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.9436152177850154</v>
+        <v>-0.9354665390041916</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5722969939386969</v>
+        <v>-0.5713351928737689</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7502012041900338</v>
+        <v>-0.7844183274321218</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.636058146806869</v>
+        <v>-0.634658864367749</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3977914947304282</v>
+        <v>-0.4271829418114527</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6581514360080025</v>
+        <v>-0.632362276964754</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7041610370119947</v>
+        <v>-0.6892836370712259</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3500995689203777</v>
+        <v>-0.3276056946261806</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.689161568981843</v>
+        <v>1.671733148388539</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.05467670272115342</v>
+        <v>-0.03097711056599749</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.532060592096209</v>
+        <v>1.417914216029421</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3783638426343665</v>
+        <v>0.4037169859913955</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7315669489311657</v>
+        <v>0.7579457184793097</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9875799207110417</v>
+        <v>0.9688789333729985</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3597807758659515</v>
+        <v>0.5119247566036847</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.09497885727571428</v>
+        <v>0.07312851761990569</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7044841904001536</v>
+        <v>0.641554156693368</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.05690826492524559</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.319602037522962</v>
+        <v>1.319602037522963</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.915621922613243</v>
@@ -1297,7 +1297,7 @@
         <v>0.6011531621114077</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.209454941285222</v>
+        <v>1.209454941285224</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.469205036332069</v>
@@ -1306,7 +1306,7 @@
         <v>0.3497443927698865</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.29075858832799</v>
+        <v>1.290758588327991</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1669667818945317</v>
+        <v>0.1995513823014578</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5835207073425298</v>
+        <v>-0.6477529702868863</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5148902210440753</v>
+        <v>0.5375221192376394</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6467207853210734</v>
+        <v>0.5712703734525048</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5663578928443065</v>
+        <v>-0.7301714808473617</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06614835708853979</v>
+        <v>0.08180234376056517</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6642931639308302</v>
+        <v>0.7983678393439192</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.3996498903641446</v>
+        <v>-0.3953819300460348</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6184408527629732</v>
+        <v>0.6326683066524906</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.770386719689891</v>
+        <v>1.82769356313521</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7964293007346591</v>
+        <v>0.7376060760459675</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.074258782432643</v>
+        <v>2.071561546992872</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.256644803286272</v>
+        <v>3.136149886680633</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.823121689797711</v>
+        <v>1.747181389977092</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.39931716251451</v>
+        <v>2.23017572292595</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.214841946586922</v>
+        <v>2.246418857730274</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.072837374217227</v>
+        <v>1.080877024435885</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.008710909941045</v>
+        <v>2.008892880342045</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.02659128227079173</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6166048167340705</v>
+        <v>0.6166048167340709</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2966926931871738</v>
@@ -1402,7 +1402,7 @@
         <v>0.09310696885401482</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1873211198841011</v>
+        <v>0.1873211198841014</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3391539723642422</v>
@@ -1411,7 +1411,7 @@
         <v>0.0807356340243425</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2979610685841372</v>
+        <v>0.2979610685841373</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.07254889622113285</v>
+        <v>0.07797241408345759</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2439885620420306</v>
+        <v>-0.2574815462605143</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2197172433686627</v>
+        <v>0.2229783866158154</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08875361371168307</v>
+        <v>0.0763227330292696</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08315090606292068</v>
+        <v>-0.1032202506988977</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008989336131747979</v>
+        <v>0.01563388431550675</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1445105479313762</v>
+        <v>0.1700086454189987</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.08498667131098679</v>
+        <v>-0.08547864882905366</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1287128137391964</v>
+        <v>0.1319474042956925</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9471376240812911</v>
+        <v>1.047069946137598</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4618733964690898</v>
+        <v>0.4239877190928381</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.172711379732474</v>
+        <v>1.184985585738697</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5535575061769198</v>
+        <v>0.5265837191004423</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3107315339603779</v>
+        <v>0.3039691170645911</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4163251983467053</v>
+        <v>0.4015531508386245</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5557186342678841</v>
+        <v>0.5590352698855844</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.265827358455436</v>
+        <v>0.2683268722010823</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5052241168348707</v>
+        <v>0.5079822015170373</v>
       </c>
     </row>
     <row r="28">
